--- a/assets/representadas/documentos/CLIENTES_PR_COMPLETO.xlsx
+++ b/assets/representadas/documentos/CLIENTES_PR_COMPLETO.xlsx
@@ -1619,8 +1619,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C162" activeCellId="0" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
